--- a/db/최소 환승 시간.xlsx
+++ b/db/최소 환승 시간.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C848223-AB7C-41C4-85D8-FCD58D9A4036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ICN-AI-chatbot\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D394BE1C-95FA-4E4D-9208-D2516CEFE18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40185" yWindow="5835" windowWidth="21600" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="9">
   <si>
     <t>origin_terminal</t>
   </si>
@@ -49,18 +52,37 @@
   </si>
   <si>
     <t>P03</t>
+  </si>
+  <si>
+    <t>P02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -420,15 +442,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -450,7 +472,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -461,7 +483,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -472,7 +494,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -483,7 +505,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -494,7 +516,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -505,7 +527,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -516,7 +538,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -527,7 +549,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -538,7 +560,75 @@
         <v>70</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>